--- a/CI880V_0402/CI880V.xlsx
+++ b/CI880V_0402/CI880V.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raczl\Desktop\CI880V_OSGyak\CI880V_0402\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A0FB32-5EFD-4478-84AC-4900DA553AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE97463-B1E3-48F5-B628-5BBCC5E21B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>P2,P4</t>
   </si>
   <si>
-    <t>12cs+3 ütemezés(37.5-1.5)/</t>
-  </si>
-  <si>
     <t>(25+27+29+25)/4=26.6ms</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>Válaszidő</t>
+  </si>
+  <si>
+    <t>(36,4-0,4)/36,4= 98,9 %</t>
   </si>
 </sst>
 </file>
@@ -263,22 +263,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -287,31 +304,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -594,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -613,11 +608,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -670,13 +665,12 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="U3" s="12"/>
-      <c r="AS3" s="5" t="s">
+      <c r="AS3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
     </row>
     <row r="4" spans="1:48" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
@@ -700,12 +694,12 @@
       <c r="G4" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -715,14 +709,14 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="AS4" s="5" t="s">
+      <c r="AS4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="9">
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="14">
         <v>1</v>
       </c>
-      <c r="AV4" s="5"/>
+      <c r="AV4" s="13"/>
     </row>
     <row r="5" spans="1:48" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
@@ -746,18 +740,18 @@
       <c r="G5" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
@@ -767,14 +761,14 @@
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
-      <c r="AS5" s="5" t="s">
+      <c r="AS5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5" t="s">
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AV5" s="5"/>
+      <c r="AV5" s="13"/>
     </row>
     <row r="6" spans="1:48" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
@@ -798,23 +792,23 @@
       <c r="G6" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
@@ -824,14 +818,14 @@
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
-      <c r="AS6" s="5" t="s">
+      <c r="AS6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5" t="s">
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AV6" s="5"/>
+      <c r="AV6" s="13"/>
     </row>
     <row r="7" spans="1:48" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="G7">
@@ -945,111 +939,99 @@
       <c r="AQ7">
         <v>36</v>
       </c>
-      <c r="AS7" s="5" t="s">
+      <c r="AS7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5" t="s">
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AV7" s="5"/>
+      <c r="AV7" s="13"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.45">
       <c r="G11" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="7" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="8" t="s">
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="3" t="s">
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4" t="s">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="11" t="s">
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" t="s">
         <v>24</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="R12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4" t="s">
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="11"/>
-      <c r="AO12" s="11"/>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="11"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.45">
       <c r="G13">
@@ -1165,11 +1147,11 @@
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
@@ -1213,18 +1195,18 @@
       <c r="G19" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -1237,13 +1219,13 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="15"/>
-      <c r="AS19" s="5" t="s">
+      <c r="AF19" s="4"/>
+      <c r="AS19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AT19" s="5"/>
-      <c r="AU19" s="5"/>
-      <c r="AV19" s="5"/>
+      <c r="AT19" s="13"/>
+      <c r="AU19" s="13"/>
+      <c r="AV19" s="13"/>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
@@ -1268,10 +1250,10 @@
         <v>1</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -1280,10 +1262,10 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
@@ -1293,15 +1275,15 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
-      <c r="AK20" s="15"/>
-      <c r="AS20" s="5" t="s">
+      <c r="AK20" s="4"/>
+      <c r="AS20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AT20" s="5"/>
-      <c r="AU20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AV20" s="5"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV20" s="13"/>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
@@ -1331,10 +1313,10 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
@@ -1344,24 +1326,24 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
-      <c r="AP21" s="15"/>
-      <c r="AS21" s="5" t="s">
+      <c r="AP21" s="4"/>
+      <c r="AS21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AT21" s="5"/>
-      <c r="AU21" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV21" s="5"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV21" s="13"/>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
@@ -1394,30 +1376,30 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
-      <c r="AL22" s="15"/>
-      <c r="AM22" s="15"/>
-      <c r="AN22" s="15"/>
-      <c r="AO22" s="15"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
       <c r="AP22" s="2"/>
-      <c r="AQ22" s="15"/>
-      <c r="AS22" s="5" t="s">
+      <c r="AQ22" s="4"/>
+      <c r="AS22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AT22" s="5"/>
-      <c r="AU22" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV22" s="5"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV22" s="13"/>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.45">
       <c r="G23">
@@ -1531,21 +1513,21 @@
       <c r="AQ23">
         <v>36</v>
       </c>
-      <c r="AS23" s="5" t="s">
+      <c r="AS23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AT23" s="5"/>
-      <c r="AU23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AV23" s="5"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV23" s="13"/>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
         <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.45">
@@ -1561,64 +1543,64 @@
       <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="19" t="s">
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="6" t="s">
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="21" t="s">
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="19" t="s">
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="22" t="s">
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
-      <c r="AE25" s="22"/>
-      <c r="AF25" s="17" t="s">
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AG25" s="21" t="s">
+      <c r="AG25" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AH25" s="21"/>
-      <c r="AI25" s="21"/>
-      <c r="AJ25" s="21"/>
-      <c r="AK25" s="18" t="s">
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AL25" s="22" t="s">
+      <c r="AL25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AM25" s="22"/>
-      <c r="AN25" s="22"/>
-      <c r="AO25" s="22"/>
-      <c r="AP25" s="20" t="s">
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="11"/>
+      <c r="AP25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AQ25" s="23" t="s">
+      <c r="AQ25" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1638,56 +1620,56 @@
       <c r="K26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4" t="s">
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
       <c r="S26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4" t="s">
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4" t="s">
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
       <c r="AF26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG26" s="4" t="s">
+      <c r="AG26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
       <c r="AK26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AL26" s="4" t="s">
+      <c r="AL26" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AM26" s="4"/>
-      <c r="AN26" s="4"/>
-      <c r="AO26" s="4"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+      <c r="AO26" s="8"/>
       <c r="AP26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1827,34 +1809,33 @@
       </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="X26:AA26"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="AL26:AO26"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="X25:AA25"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="AL25:AO25"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="AS23:AT23"/>
+    <mergeCell ref="AU23:AV23"/>
+    <mergeCell ref="H11:P11"/>
+    <mergeCell ref="Q11:Y11"/>
+    <mergeCell ref="Z11:AH11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="R12:Y12"/>
+    <mergeCell ref="AI11:AQ11"/>
+    <mergeCell ref="AS22:AT22"/>
+    <mergeCell ref="AU22:AV22"/>
+    <mergeCell ref="AS19:AV19"/>
+    <mergeCell ref="AS20:AT20"/>
+    <mergeCell ref="AU20:AV20"/>
+    <mergeCell ref="AS21:AT21"/>
+    <mergeCell ref="AU21:AV21"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="AS3:AV3"/>
@@ -1867,22 +1848,23 @@
     <mergeCell ref="AU6:AV6"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="AS19:AV19"/>
-    <mergeCell ref="AS20:AT20"/>
-    <mergeCell ref="AU20:AV20"/>
-    <mergeCell ref="AS21:AT21"/>
-    <mergeCell ref="AU21:AV21"/>
     <mergeCell ref="Z12:AH12"/>
-    <mergeCell ref="AS23:AT23"/>
-    <mergeCell ref="AU23:AV23"/>
-    <mergeCell ref="H11:P11"/>
-    <mergeCell ref="Q11:Y11"/>
-    <mergeCell ref="Z11:AH11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="R12:Y12"/>
-    <mergeCell ref="AI11:AQ11"/>
-    <mergeCell ref="AS22:AT22"/>
-    <mergeCell ref="AU22:AV22"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="AL25:AO25"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="AL26:AO26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
